--- a/QQQ_returns_3750d.xlsx
+++ b/QQQ_returns_3750d.xlsx
@@ -12673,12 +12673,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12694,10 +12694,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12708,10 +12754,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12732,92 +12810,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -12832,14 +12824,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12860,7 +12853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12872,7 +12871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12884,7 +12889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12896,19 +12901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12932,19 +12937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12962,19 +12973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12986,31 +12985,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13022,25 +13027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13065,6 +13058,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13098,23 +13130,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13122,32 +13139,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13169,148 +13162,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13319,8 +13312,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39517,15 +39510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>399415</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -39533,8 +39526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8032115" y="3580130"/>
-        <a:ext cx="6123940" cy="4457065"/>
+        <a:off x="8248650" y="1362710"/>
+        <a:ext cx="6390640" cy="4457065"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -39835,7 +39828,7 @@
   <dimension ref="A1:L2104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H1" sqref="H1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -39846,6 +39839,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.7272727272727" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="10" max="10" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
